--- a/2_ModelAndParameters/lookups.xlsx
+++ b/2_ModelAndParameters/lookups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833673F-5712-4CDF-9E45-4D50283C0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9F50D-C66F-4036-943E-88E01DF3D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="198">
   <si>
     <t>LATE</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Increases increasingly until reference point, then increases decreasingly to flatten at 2</t>
   </si>
   <si>
-    <t>(assuming 100% higher word of mouth adoption (so 3%) when bike parking is twice as abundant as today)</t>
-  </si>
-  <si>
-    <t>(assuming 0 word of mouth adoption when zero parking available)</t>
-  </si>
-  <si>
     <t>(current contact fruitfulness)</t>
   </si>
   <si>
@@ -632,6 +626,24 @@
   <si>
     <t>This tab defines the 15 effect lookups used within the model to define non-linear relationships between variables</t>
   </si>
+  <si>
+    <t>smoothened</t>
+  </si>
+  <si>
+    <t>(0.0,0.01),(0.103,0.27),(0.205,0.458),(0.308,0.574),(0.41,0.658),(0.513,0.74),(0.615,0.809),(0.718,0.862),(0.821,0.91),(0.923,0.958),(1.026,1.016),(1.128,1.088),(1.231,1.18),(1.333,1.298),(1.436,1.465),(1.538,1.689),(1.641,1.971),(1.744,2.298),(1.846,2.574),(1.949,2.776),(2.051,2.906),(2.154,2.965),(2.256,3.002),(2.359,3.002),(2.462,3.002),(2.564,3.002),(2.667,3.002),(2.769,3.002),(2.872,3.002),(2.974,3.002),(3.077,3.002),(3.179,3.002),(3.282,3.002),(3.385,3.002),(3.487,3.002),(3.59,3.002),(3.692,3.002),(3.795,3.002),(3.897,3.002),(4.0,3.002)</t>
+  </si>
+  <si>
+    <t>(0.0,0.01),(0.103,0.014),(0.205,0.042),(0.308,0.094),(0.41,0.168),(0.513,0.264),(0.615,0.378),(0.718,0.512),(0.821,0.675),(0.923,0.871),(1.026,1.035),(1.128,1.142),(1.231,1.229),(1.333,1.313),(1.436,1.386),(1.538,1.445),(1.641,1.492),(1.744,1.528),(1.846,1.551),(1.949,1.561),(2.051,1.569),(2.154,1.569),(2.256,1.569),(2.359,1.569),(2.462,1.569),(2.564,1.569),(2.667,1.569),(2.769,1.569),(2.872,1.569),(2.974,1.569),(3.077,1.569),(3.179,1.569),(3.282,1.569),(3.385,1.569),(3.487,1.569),(3.59,1.569),(3.692,1.569),(3.795,1.569),(3.897,1.569),(4.0,1.569)</t>
+  </si>
+  <si>
+    <t>(assuming 50% lower word of mouth adoption (so 1%) when zero parking available)</t>
+  </si>
+  <si>
+    <t>(assuming 50% lower word of mouth adoption (so 1%)  when users stop cycling)</t>
+  </si>
+  <si>
+    <t>(assuming 50% higher contact fruitfulness (so 3%) when bike parking is twice as abundant as today)</t>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +653,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +744,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -883,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -949,9 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,15 +980,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3609,7 +3625,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,16 +3640,16 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -3648,7 +3664,7 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>2.6</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.85</c:v>
@@ -18943,13 +18959,13 @@
       <sheetName val="callibration"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="40">
           <cell r="D40">
@@ -19237,7 +19253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -19248,41 +19264,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46" t="s">
-        <v>177</v>
+      <c r="B2" s="45" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="56" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+      <c r="C5" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="61" t="s">
-        <v>181</v>
-      </c>
       <c r="C6" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="60"/>
+      <c r="B7" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19309,99 +19325,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46" t="s">
-        <v>182</v>
+      <c r="B2" s="45" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+        <v>165</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
       </c>
       <c r="E11">
-        <f>D11</f>
+        <f t="shared" ref="E11:E34" si="0">D11</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>D11*($C$21+$C$22*EXP($C$23*D11))</f>
+        <f t="shared" ref="F11:F29" si="1">D11*($C$21+$C$22*EXP($C$23*D11))</f>
         <v>0</v>
       </c>
       <c r="G11" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D11,TEXT($E11,"0.000")&amp;")")</f>
+        <f t="shared" ref="G11:G34" si="2">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D11,TEXT($E11,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="H11" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D11,TEXT($F11,"0.000")&amp;")")</f>
+        <f t="shared" ref="H11:H34" si="3">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D11,TEXT($F11,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="Q11" s="17"/>
@@ -19412,19 +19428,19 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>D12*($C$21+$C$22*EXP($C$23*D12))</f>
+        <f t="shared" si="1"/>
         <v>2.0002225540928493</v>
       </c>
       <c r="G12" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D12,TEXT($E12,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1,1.000)</v>
       </c>
       <c r="H12" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D12,TEXT($F12,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(1,2.000)</v>
       </c>
       <c r="Q12" s="17"/>
@@ -19435,19 +19451,19 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13">
-        <f>D13*($C$21+$C$22*EXP($C$23*D13))</f>
+        <f t="shared" si="1"/>
         <v>4.000990606484879</v>
       </c>
       <c r="G13" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D13,TEXT($E13,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(2,2.000)</v>
       </c>
       <c r="H13" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D13,TEXT($F13,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(2,4.001)</v>
       </c>
       <c r="Q13" s="17"/>
@@ -19458,19 +19474,19 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f>D14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F14">
-        <f>D14*($C$21+$C$22*EXP($C$23*D14))</f>
+        <f t="shared" si="1"/>
         <v>6.0033069529141923</v>
       </c>
       <c r="G14" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D14,TEXT($E14,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(3,3.000)</v>
       </c>
       <c r="H14" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D14,TEXT($F14,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(3,6.003)</v>
       </c>
       <c r="Q14" s="17"/>
@@ -19481,19 +19497,19 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <f>D15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F15">
-        <f>D15*($C$21+$C$22*EXP($C$23*D15))</f>
+        <f t="shared" si="1"/>
         <v>8.009813012078844</v>
       </c>
       <c r="G15" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D15,TEXT($E15,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(4,4.000)</v>
       </c>
       <c r="H15" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D15,TEXT($F15,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(4,8.010)</v>
       </c>
       <c r="Q15" s="17"/>
@@ -19504,19 +19520,19 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F16">
-        <f>D16*($C$21+$C$22*EXP($C$23*D16))</f>
+        <f t="shared" si="1"/>
         <v>10.027299075016572</v>
       </c>
       <c r="G16" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D16,TEXT($E16,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(5,5.000)</v>
       </c>
       <c r="H16" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D16,TEXT($F16,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(5,10.027)</v>
       </c>
       <c r="Q16" s="17"/>
@@ -19527,45 +19543,45 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F17">
-        <f>D17*($C$21+$C$22*EXP($C$23*D17))</f>
+        <f t="shared" si="1"/>
         <v>12.07290625051124</v>
       </c>
       <c r="G17" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D17,TEXT($E17,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(6,6.000)</v>
       </c>
       <c r="H17" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D17,TEXT($F17,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(6,12.073)</v>
       </c>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="C18" s="52"/>
       <c r="D18" s="18">
         <v>7</v>
       </c>
       <c r="E18">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F18">
-        <f>D18*($C$21+$C$22*EXP($C$23*D18))</f>
+        <f t="shared" si="1"/>
         <v>14.189298485198307</v>
       </c>
       <c r="G18" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D18,TEXT($E18,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(7,7.000)</v>
       </c>
       <c r="H18" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D18,TEXT($F18,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(7,14.189)</v>
       </c>
       <c r="Q18" s="17"/>
@@ -19576,55 +19592,55 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F19">
-        <f>D19*($C$21+$C$22*EXP($C$23*D19))</f>
+        <f t="shared" si="1"/>
         <v>16.481476030297667</v>
       </c>
       <c r="G19" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D19,TEXT($E19,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(8,8.000)</v>
       </c>
       <c r="H19" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D19,TEXT($F19,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(8,16.481)</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="51"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="18">
         <v>9</v>
       </c>
       <c r="E20">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F20">
-        <f>D20*($C$21+$C$22*EXP($C$23*D20))</f>
+        <f t="shared" si="1"/>
         <v>19.205487687954978</v>
       </c>
       <c r="G20" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D20,TEXT($E20,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(9,9.000)</v>
       </c>
       <c r="H20" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D20,TEXT($F20,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(9,19.205)</v>
       </c>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -19633,26 +19649,26 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F21">
-        <f>D21*($C$21+$C$22*EXP($C$23*D21))</f>
+        <f t="shared" si="1"/>
         <v>22.98095798704173</v>
       </c>
       <c r="G21" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D21,TEXT($E21,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(10,10.000)</v>
       </c>
       <c r="H21" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D21,TEXT($F21,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(10,22.981)</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22">
         <v>1E-4</v>
@@ -19661,26 +19677,26 @@
         <v>10.5</v>
       </c>
       <c r="E22">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="F22">
-        <f>D22*($C$21+$C$22*EXP($C$23*D22))</f>
+        <f t="shared" si="1"/>
         <v>25.669420085084852</v>
       </c>
       <c r="G22" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D22,TEXT($E22,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(10.5,10.500)</v>
       </c>
       <c r="H22" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D22,TEXT($F22,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(10.5,25.669)</v>
       </c>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>0.8</v>
@@ -19689,19 +19705,19 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F23">
-        <f>D23*($C$21+$C$22*EXP($C$23*D23))</f>
+        <f t="shared" si="1"/>
         <v>29.297668406905675</v>
       </c>
       <c r="G23" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D23,TEXT($E23,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(11,11.000)</v>
       </c>
       <c r="H23" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D23,TEXT($F23,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(11,29.298)</v>
       </c>
       <c r="Q23" s="17"/>
@@ -19712,19 +19728,19 @@
         <v>11.5</v>
       </c>
       <c r="E24">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="F24">
-        <f>D24*($C$21+$C$22*EXP($C$23*D24))</f>
+        <f t="shared" si="1"/>
         <v>34.381698417555519</v>
       </c>
       <c r="G24" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D24,TEXT($E24,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(11.5,11.500)</v>
       </c>
       <c r="H24" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D24,TEXT($F24,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(11.5,34.382)</v>
       </c>
       <c r="Q24" s="17"/>
@@ -19735,19 +19751,19 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F25">
-        <f>D25*($C$21+$C$22*EXP($C$23*D25))</f>
+        <f t="shared" si="1"/>
         <v>41.717737878692759</v>
       </c>
       <c r="G25" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D25,TEXT($E25,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(12,12.000)</v>
       </c>
       <c r="H25" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D25,TEXT($F25,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(12,41.718)</v>
       </c>
       <c r="Q25" s="17"/>
@@ -19758,19 +19774,19 @@
         <v>12.5</v>
       </c>
       <c r="E26">
-        <f>D26</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="F26">
-        <f>D26*($C$21+$C$22*EXP($C$23*D26))</f>
+        <f t="shared" si="1"/>
         <v>52.533082243508403</v>
       </c>
       <c r="G26" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D26,TEXT($E26,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(12.5,12.500)</v>
       </c>
       <c r="H26" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D26,TEXT($F26,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(12.5,52.533)</v>
       </c>
       <c r="Q26" s="17"/>
@@ -19781,23 +19797,23 @@
         <v>13</v>
       </c>
       <c r="E27">
-        <f>D27</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F27">
-        <f>D27*($C$21+$C$22*EXP($C$23*D27))</f>
+        <f t="shared" si="1"/>
         <v>68.717513376776324</v>
       </c>
       <c r="G27" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D27,TEXT($E27,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(13,13.000)</v>
       </c>
       <c r="H27" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D27,TEXT($F27,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(13,68.718)</v>
       </c>
       <c r="J27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="17"/>
     </row>
@@ -19807,19 +19823,19 @@
         <v>13.5</v>
       </c>
       <c r="E28">
-        <f>D28</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="F28">
-        <f>D28*($C$21+$C$22*EXP($C$23*D28))</f>
+        <f t="shared" si="1"/>
         <v>93.178081534115364</v>
       </c>
       <c r="G28" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D28,TEXT($E28,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(13.5,13.500)</v>
       </c>
       <c r="H28" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D28,TEXT($F28,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(13.5,93.178)</v>
       </c>
       <c r="Q28" s="17"/>
@@ -19830,19 +19846,19 @@
         <v>14</v>
       </c>
       <c r="E29">
-        <f>D29</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F29">
-        <f>D29*($C$21+$C$22*EXP($C$23*D29))</f>
+        <f t="shared" si="1"/>
         <v>130.38261856678182</v>
       </c>
       <c r="G29" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D29,TEXT($E29,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(14,14.000)</v>
       </c>
       <c r="H29" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D29,TEXT($F29,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(14,130.383)</v>
       </c>
       <c r="Q29" s="17"/>
@@ -19853,18 +19869,18 @@
         <v>14.5</v>
       </c>
       <c r="E30">
-        <f>D30</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="F30">
         <v>145</v>
       </c>
       <c r="G30" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D30,TEXT($E30,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(14.5,14.500)</v>
       </c>
       <c r="H30" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D30,TEXT($F30,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(14.5,145.000)</v>
       </c>
       <c r="Q30" s="17"/>
@@ -19875,18 +19891,18 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <f>D31</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F31">
         <v>155</v>
       </c>
       <c r="G31" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D31,TEXT($E31,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(15,15.000)</v>
       </c>
       <c r="H31" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D31,TEXT($F31,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(15,155.000)</v>
       </c>
       <c r="Q31" s="17"/>
@@ -19897,18 +19913,18 @@
         <v>15.5</v>
       </c>
       <c r="E32">
-        <f>D32</f>
+        <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
       <c r="F32">
         <v>160</v>
       </c>
       <c r="G32" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D32,TEXT($E32,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(15.5,15.500)</v>
       </c>
       <c r="H32" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D32,TEXT($F32,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(15.5,160.000)</v>
       </c>
       <c r="Q32" s="17"/>
@@ -19919,18 +19935,18 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <f>D33</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F33">
         <v>162</v>
       </c>
       <c r="G33" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D33,TEXT($E33,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(16,16.000)</v>
       </c>
       <c r="H33" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D33,TEXT($F33,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(16,162.000)</v>
       </c>
       <c r="Q33" s="17"/>
@@ -19941,18 +19957,18 @@
         <v>25</v>
       </c>
       <c r="E34">
-        <f>D34</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F34">
         <v>162</v>
       </c>
       <c r="G34" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D34,TEXT($E34,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(25,25.000)</v>
       </c>
       <c r="H34" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D34,TEXT($F34,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(25,162.000)</v>
       </c>
       <c r="Q34" s="17"/>
@@ -19981,60 +19997,60 @@
     </row>
     <row r="37" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="51"/>
+        <v>166</v>
+      </c>
+      <c r="C37" s="50"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="49"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="C38" s="47"/>
       <c r="D38" s="18"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="18">
         <v>0</v>
       </c>
       <c r="E40">
-        <f>D40</f>
+        <f t="shared" ref="E40:E58" si="4">D40</f>
         <v>0</v>
       </c>
       <c r="F40">
@@ -20042,27 +20058,27 @@
         <v>0.84367400000000004</v>
       </c>
       <c r="G40">
-        <f>$D40*($C$52+$C$53*EXP($C$54*$D40))</f>
+        <f t="shared" ref="G40:G58" si="5">$D40*($C$52+$C$53*EXP($C$54*$D40))</f>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>$D40*($C$59+$C$60*EXP($C$61*$D40))</f>
+        <f t="shared" ref="H40:H58" si="6">$D40*($C$59+$C$60*EXP($C$61*$D40))</f>
         <v>0</v>
       </c>
       <c r="I40" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT(E40,"0.000")&amp;")")</f>
+        <f t="shared" ref="I40:I58" si="7">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT(E40,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="J40" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($F40,"0.000")&amp;")")</f>
+        <f t="shared" ref="J40:J58" si="8">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($F40,"0.000")&amp;")")</f>
         <v>(0,0.844)</v>
       </c>
       <c r="K40" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($G40,"0.000")&amp;")")</f>
+        <f t="shared" ref="K40:K58" si="9">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($G40,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="L40" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($H40,"0.000")&amp;")")</f>
+        <f t="shared" ref="L40:L58" si="10">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D40,TEXT($H40,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="Q40" s="17"/>
@@ -20073,77 +20089,77 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>D41</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f>D41*($C$45+$C$46*EXP($C$47*D41))</f>
+        <f t="shared" ref="F41:F58" si="11">D41*($C$45+$C$46*EXP($C$47*D41))</f>
         <v>0.95584800616759935</v>
       </c>
       <c r="G41">
-        <f>$D41*($C$52+$C$53*EXP($C$54*$D41))</f>
+        <f t="shared" si="5"/>
         <v>1.2643572240560534</v>
       </c>
       <c r="H41">
-        <f>$D41*($C$59+$C$60*EXP($C$61*$D41))</f>
+        <f t="shared" si="6"/>
         <v>1.5069307673213665</v>
       </c>
       <c r="I41" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D41,TEXT(E41,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(1,1.000)</v>
       </c>
       <c r="J41" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D41,TEXT($F41,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1,0.956)</v>
       </c>
       <c r="K41" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D41,TEXT($G41,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(1,1.264)</v>
       </c>
       <c r="L41" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D41,TEXT($H41,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1,1.507)</v>
       </c>
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="48"/>
+        <v>161</v>
+      </c>
+      <c r="C42" s="47"/>
       <c r="D42" s="18">
         <v>2</v>
       </c>
       <c r="E42">
-        <f>D42</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F42">
-        <f>D42*($C$45+$C$46*EXP($C$47*D42))</f>
+        <f t="shared" si="11"/>
         <v>2.2277251675669065</v>
       </c>
       <c r="G42">
-        <f>$D42*($C$52+$C$53*EXP($C$54*$D42))</f>
+        <f t="shared" si="5"/>
         <v>3.1000006080793923</v>
       </c>
       <c r="H42">
-        <f>$D42*($C$59+$C$60*EXP($C$61*$D42))</f>
+        <f t="shared" si="6"/>
         <v>3.6000014418211586</v>
       </c>
       <c r="I42" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D42,TEXT(E42,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(2,2.000)</v>
       </c>
       <c r="J42" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D42,TEXT($F42,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(2,2.228)</v>
       </c>
       <c r="K42" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D42,TEXT($G42,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(2,3.100)</v>
       </c>
       <c r="L42" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D42,TEXT($H42,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(2,3.600)</v>
       </c>
       <c r="Q42" s="17"/>
@@ -20151,219 +20167,219 @@
     <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="18"/>
       <c r="D43" s="18">
-        <f>D42+0.5</f>
+        <f t="shared" ref="D43:D58" si="12">D42+0.5</f>
         <v>2.5</v>
       </c>
       <c r="E43">
-        <f>D43</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="F43">
-        <f>D43*($C$45+$C$46*EXP($C$47*D43))</f>
+        <f t="shared" si="11"/>
         <v>3.0391164432735378</v>
       </c>
       <c r="G43">
-        <f>$D43*($C$52+$C$53*EXP($C$54*$D43))</f>
+        <f t="shared" si="5"/>
         <v>4.3264672142909877</v>
       </c>
       <c r="H43">
-        <f>$D43*($C$59+$C$60*EXP($C$61*$D43))</f>
+        <f t="shared" si="6"/>
         <v>4.9716446543187702</v>
       </c>
       <c r="I43" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D43,TEXT(E43,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(2.5,2.500)</v>
       </c>
       <c r="J43" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D43,TEXT($F43,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(2.5,3.039)</v>
       </c>
       <c r="K43" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D43,TEXT($G43,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(2.5,4.326)</v>
       </c>
       <c r="L43" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D43,TEXT($H43,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(2.5,4.972)</v>
       </c>
       <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D44" s="18">
-        <f>D43+0.5</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E44">
-        <f>D44</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F44">
-        <f>D44*($C$45+$C$46*EXP($C$47*D44))</f>
+        <f t="shared" si="11"/>
         <v>4.0093522609412302</v>
       </c>
       <c r="G44">
-        <f>$D44*($C$52+$C$53*EXP($C$54*$D44))</f>
+        <f t="shared" si="5"/>
         <v>5.8265693156642948</v>
       </c>
       <c r="H44">
-        <f>$D44*($C$59+$C$60*EXP($C$61*$D44))</f>
+        <f t="shared" si="6"/>
         <v>6.6374095073949544</v>
       </c>
       <c r="I44" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D44,TEXT(E44,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(3,3.000)</v>
       </c>
       <c r="J44" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D44,TEXT($F44,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(3,4.009)</v>
       </c>
       <c r="K44" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D44,TEXT($G44,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(3,5.827)</v>
       </c>
       <c r="L44" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D44,TEXT($H44,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(3,6.637)</v>
       </c>
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>0.56917899999999999</v>
       </c>
       <c r="D45" s="18">
-        <f>D44+0.5</f>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="E45">
-        <f>D45</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="F45">
-        <f>D45*($C$45+$C$46*EXP($C$47*D45))</f>
+        <f t="shared" si="11"/>
         <v>5.1794028246409782</v>
       </c>
       <c r="G45">
-        <f>$D45*($C$52+$C$53*EXP($C$54*$D45))</f>
+        <f t="shared" si="5"/>
         <v>7.6654763810716382</v>
       </c>
       <c r="H45">
-        <f>$D45*($C$59+$C$60*EXP($C$61*$D45))</f>
+        <f t="shared" si="6"/>
         <v>8.6729561827074448</v>
       </c>
       <c r="I45" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D45,TEXT(E45,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(3.5,3.500)</v>
       </c>
       <c r="J45" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D45,TEXT($F45,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(3.5,5.179)</v>
       </c>
       <c r="K45" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D45,TEXT($G45,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(3.5,7.665)</v>
       </c>
       <c r="L45" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D45,TEXT($H45,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(3.5,8.673)</v>
       </c>
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46">
         <v>0.27449499999999999</v>
       </c>
       <c r="D46" s="18">
-        <f>D45+0.5</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E46">
-        <f>D46</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F46">
-        <f>D46*($C$45+$C$46*EXP($C$47*D46))</f>
+        <f t="shared" si="11"/>
         <v>6.600003585466931</v>
       </c>
       <c r="G46">
-        <f>$D46*($C$52+$C$53*EXP($C$54*$D46))</f>
+        <f t="shared" si="5"/>
         <v>9.922671987525618</v>
       </c>
       <c r="H46">
-        <f>$D46*($C$59+$C$60*EXP($C$61*$D46))</f>
+        <f t="shared" si="6"/>
         <v>11.171929333684503</v>
       </c>
       <c r="I46" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D46,TEXT(E46,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(4,4.000)</v>
       </c>
       <c r="J46" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D46,TEXT($F46,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(4,6.600)</v>
       </c>
       <c r="K46" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D46,TEXT($G46,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(4,9.923)</v>
       </c>
       <c r="L46" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D46,TEXT($H46,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(4,11.172)</v>
       </c>
       <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47">
         <v>0.342636</v>
       </c>
       <c r="D47" s="18">
-        <f>D46+0.5</f>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="E47">
-        <f>D47</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="F47">
-        <f>D47*($C$45+$C$46*EXP($C$47*D47))</f>
+        <f t="shared" si="11"/>
         <v>8.3338742012118452</v>
       </c>
       <c r="G47">
-        <f>$D47*($C$52+$C$53*EXP($C$54*$D47))</f>
+        <f t="shared" si="5"/>
         <v>12.694948362585446</v>
       </c>
       <c r="H47">
-        <f>$D47*($C$59+$C$60*EXP($C$61*$D47))</f>
+        <f t="shared" si="6"/>
         <v>14.250033439590618</v>
       </c>
       <c r="I47" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D47,TEXT(E47,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(4.5,4.500)</v>
       </c>
       <c r="J47" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D47,TEXT($F47,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(4.5,8.334)</v>
       </c>
       <c r="K47" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D47,TEXT($G47,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(4.5,12.695)</v>
       </c>
       <c r="L47" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D47,TEXT($H47,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(4.5,14.250)</v>
       </c>
       <c r="Q47" s="17"/>
@@ -20371,82 +20387,82 @@
     <row r="48" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="18"/>
       <c r="D48" s="18">
-        <f>D47+0.5</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E48">
-        <f>D48</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F48">
-        <f>D48*($C$45+$C$46*EXP($C$47*D48))</f>
+        <f t="shared" si="11"/>
         <v>10.458425802242385</v>
       </c>
       <c r="G48">
-        <f>$D48*($C$52+$C$53*EXP($C$54*$D48))</f>
+        <f t="shared" si="5"/>
         <v>16.100007316942623</v>
       </c>
       <c r="H48">
-        <f>$D48*($C$59+$C$60*EXP($C$61*$D48))</f>
+        <f t="shared" si="6"/>
         <v>18.050002498548739</v>
       </c>
       <c r="I48" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D48,TEXT(E48,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(5,5.000)</v>
       </c>
       <c r="J48" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D48,TEXT($F48,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(5,10.458)</v>
       </c>
       <c r="K48" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D48,TEXT($G48,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(5,16.100)</v>
       </c>
       <c r="L48" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D48,TEXT($H48,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(5,18.050)</v>
       </c>
       <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="48"/>
+        <v>160</v>
+      </c>
+      <c r="C49" s="47"/>
       <c r="D49" s="18">
-        <f>D48+0.5</f>
+        <f t="shared" si="12"/>
         <v>5.5</v>
       </c>
       <c r="E49">
-        <f>D49</f>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="F49">
-        <f>D49*($C$45+$C$46*EXP($C$47*D49))</f>
+        <f t="shared" si="11"/>
         <v>13.069061575902825</v>
       </c>
       <c r="G49">
-        <f>$D49*($C$52+$C$53*EXP($C$54*$D49))</f>
+        <f t="shared" si="5"/>
         <v>20.280787529583623</v>
       </c>
       <c r="H49">
-        <f>$D49*($C$59+$C$60*EXP($C$61*$D49))</f>
+        <f t="shared" si="6"/>
         <v>22.74765585555059</v>
       </c>
       <c r="I49" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D49,TEXT(E49,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(5.5,5.500)</v>
       </c>
       <c r="J49" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D49,TEXT($F49,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(5.5,13.069)</v>
       </c>
       <c r="K49" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D49,TEXT($G49,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(5.5,20.281)</v>
       </c>
       <c r="L49" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D49,TEXT($H49,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(5.5,22.748)</v>
       </c>
       <c r="Q49" s="17"/>
@@ -20454,219 +20470,219 @@
     <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="18"/>
       <c r="D50" s="18">
-        <f>D49+0.5</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E50">
-        <f>D50</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F50">
-        <f>D50*($C$45+$C$46*EXP($C$47*D50))</f>
+        <f t="shared" si="11"/>
         <v>16.283197877185238</v>
       </c>
       <c r="G50">
-        <f>$D50*($C$52+$C$53*EXP($C$54*$D50))</f>
+        <f t="shared" si="5"/>
         <v>25.410661467773384</v>
       </c>
       <c r="H50">
-        <f>$D50*($C$59+$C$60*EXP($C$61*$D50))</f>
+        <f t="shared" si="6"/>
         <v>28.559272386384698</v>
       </c>
       <c r="I50" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D50,TEXT(E50,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(6,6.000)</v>
       </c>
       <c r="J50" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D50,TEXT($F50,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(6,16.283)</v>
       </c>
       <c r="K50" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D50,TEXT($G50,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(6,25.411)</v>
       </c>
       <c r="L50" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D50,TEXT($H50,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(6,28.559)</v>
       </c>
       <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="18">
-        <f>D50+0.5</f>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="E51">
-        <f>D51</f>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F51">
-        <f>D51*($C$45+$C$46*EXP($C$47*D51))</f>
+        <f t="shared" si="11"/>
         <v>20.245159897044029</v>
       </c>
       <c r="G51">
-        <f>$D51*($C$52+$C$53*EXP($C$54*$D51))</f>
+        <f t="shared" si="5"/>
         <v>31.699673015675064</v>
       </c>
       <c r="H51">
-        <f>$D51*($C$59+$C$60*EXP($C$61*$D51))</f>
+        <f t="shared" si="6"/>
         <v>35.750564089227886</v>
       </c>
       <c r="I51" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D51,TEXT(E51,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(6.5,6.500)</v>
       </c>
       <c r="J51" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D51,TEXT($F51,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(6.5,20.245)</v>
       </c>
       <c r="K51" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D51,TEXT($G51,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(6.5,31.700)</v>
       </c>
       <c r="L51" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D51,TEXT($H51,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(6.5,35.751)</v>
       </c>
       <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52">
         <v>0.49856899999999998</v>
       </c>
       <c r="D52" s="18">
-        <f>D51+0.5</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E52">
-        <f>D52</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F52">
-        <f>D52*($C$45+$C$46*EXP($C$47*D52))</f>
+        <f t="shared" si="11"/>
         <v>25.132138326283659</v>
       </c>
       <c r="G52">
-        <f>$D52*($C$52+$C$53*EXP($C$54*$D52))</f>
+        <f t="shared" si="5"/>
         <v>39.402019996869384</v>
       </c>
       <c r="H52">
-        <f>$D52*($C$59+$C$60*EXP($C$61*$D52))</f>
+        <f t="shared" si="6"/>
         <v>44.647589101444524</v>
       </c>
       <c r="I52" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D52,TEXT(E52,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(7,7.000)</v>
       </c>
       <c r="J52" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D52,TEXT($F52,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(7,25.132)</v>
       </c>
       <c r="K52" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D52,TEXT($G52,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(7,39.402)</v>
       </c>
       <c r="L52" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D52,TEXT($H52,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(7,44.648)</v>
       </c>
       <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53">
         <v>0.55774599999999996</v>
       </c>
       <c r="D53" s="18">
-        <f>D52+0.5</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="E53">
-        <f>D53</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="F53">
-        <f>D53*($C$45+$C$46*EXP($C$47*D53))</f>
+        <f t="shared" si="11"/>
         <v>31.161432592272721</v>
       </c>
       <c r="G53">
-        <f>$D53*($C$52+$C$53*EXP($C$54*$D53))</f>
+        <f t="shared" si="5"/>
         <v>48.825025214944027</v>
       </c>
       <c r="H53">
-        <f>$D53*($C$59+$C$60*EXP($C$61*$D53))</f>
+        <f t="shared" si="6"/>
         <v>55.650015341495937</v>
       </c>
       <c r="I53" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D53,TEXT(E53,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(7.5,7.500)</v>
       </c>
       <c r="J53" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D53,TEXT($F53,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(7.5,31.161)</v>
       </c>
       <c r="K53" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D53,TEXT($G53,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(7.5,48.825)</v>
       </c>
       <c r="L53" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D53,TEXT($H53,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(7.5,55.650)</v>
       </c>
       <c r="Q53" s="17"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>0.31700200000000001</v>
       </c>
       <c r="D54" s="18">
-        <f>D53+0.5</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="E54">
-        <f>D54</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F54">
-        <f>D54*($C$45+$C$46*EXP($C$47*D54))</f>
+        <f t="shared" si="11"/>
         <v>38.59925350249091</v>
       </c>
       <c r="G54">
-        <f>$D54*($C$52+$C$53*EXP($C$54*$D54))</f>
+        <f t="shared" si="5"/>
         <v>60.339886599452377</v>
       </c>
       <c r="H54">
-        <f>$D54*($C$59+$C$60*EXP($C$61*$D54))</f>
+        <f t="shared" si="6"/>
         <v>69.247231880208702</v>
       </c>
       <c r="I54" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D54,TEXT(E54,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(8,8.000)</v>
       </c>
       <c r="J54" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D54,TEXT($F54,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(8,38.599)</v>
       </c>
       <c r="K54" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D54,TEXT($G54,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(8,60.340)</v>
       </c>
       <c r="L54" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D54,TEXT($H54,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(8,69.247)</v>
       </c>
       <c r="Q54" s="17"/>
@@ -20674,82 +20690,82 @@
     <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="18"/>
       <c r="D55" s="18">
-        <f>D54+0.5</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="E55">
-        <f>D55</f>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="F55">
-        <f>D55*($C$45+$C$46*EXP($C$47*D55))</f>
+        <f t="shared" si="11"/>
         <v>47.771415170140742</v>
       </c>
       <c r="G55">
-        <f>$D55*($C$52+$C$53*EXP($C$54*$D55))</f>
+        <f t="shared" si="5"/>
         <v>74.394552953095697</v>
       </c>
       <c r="H55">
-        <f>$D55*($C$59+$C$60*EXP($C$61*$D55))</f>
+        <f t="shared" si="6"/>
         <v>86.037908786946076</v>
       </c>
       <c r="I55" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D55,TEXT(E55,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(8.5,8.500)</v>
       </c>
       <c r="J55" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D55,TEXT($F55,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(8.5,47.771)</v>
       </c>
       <c r="K55" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D55,TEXT($G55,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(8.5,74.395)</v>
       </c>
       <c r="L55" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D55,TEXT($H55,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(8.5,86.038)</v>
       </c>
       <c r="Q55" s="17"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="48"/>
+        <v>159</v>
+      </c>
+      <c r="C56" s="47"/>
       <c r="D56" s="18">
-        <f>D55+0.5</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="E56">
-        <f>D56</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F56">
-        <f>D56*($C$45+$C$46*EXP($C$47*D56))</f>
+        <f t="shared" si="11"/>
         <v>59.076314929374334</v>
       </c>
       <c r="G56">
-        <f>$D56*($C$52+$C$53*EXP($C$54*$D56))</f>
+        <f t="shared" si="5"/>
         <v>91.529138337400838</v>
       </c>
       <c r="H56">
-        <f>$D56*($C$59+$C$60*EXP($C$61*$D56))</f>
+        <f t="shared" si="6"/>
         <v>106.75373120186424</v>
       </c>
       <c r="I56" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D56,TEXT(E56,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(9,9.000)</v>
       </c>
       <c r="J56" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D56,TEXT($F56,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(9,59.076)</v>
       </c>
       <c r="K56" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D56,TEXT($G56,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(9,91.529)</v>
       </c>
       <c r="L56" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D56,TEXT($H56,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(9,106.754)</v>
       </c>
       <c r="Q56" s="17"/>
@@ -20757,91 +20773,91 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" s="18"/>
       <c r="D57" s="18">
-        <f>D56+0.5</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="E57">
-        <f>D57</f>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="F57">
-        <f>D57*($C$45+$C$46*EXP($C$47*D57))</f>
+        <f t="shared" si="11"/>
         <v>73.000682985993421</v>
       </c>
       <c r="G57">
-        <f>$D57*($C$52+$C$53*EXP($C$54*$D57))</f>
+        <f t="shared" si="5"/>
         <v>112.39436731164743</v>
       </c>
       <c r="H57">
-        <f>$D57*($C$59+$C$60*EXP($C$61*$D57))</f>
+        <f t="shared" si="6"/>
         <v>132.28818411879314</v>
       </c>
       <c r="I57" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D57,TEXT(E57,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(9.5,9.500)</v>
       </c>
       <c r="J57" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D57,TEXT($F57,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(9.5,73.001)</v>
       </c>
       <c r="K57" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D57,TEXT($G57,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(9.5,112.394)</v>
       </c>
       <c r="L57" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D57,TEXT($H57,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(9.5,132.288)</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D58" s="18">
-        <f>D57+0.5</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="E58">
-        <f>D58</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F58">
-        <f>D58*($C$45+$C$46*EXP($C$47*D58))</f>
+        <f t="shared" si="11"/>
         <v>90.138683699468601</v>
       </c>
       <c r="G58">
-        <f>$D58*($C$52+$C$53*EXP($C$54*$D58))</f>
+        <f t="shared" si="5"/>
         <v>137.77363743099787</v>
       </c>
       <c r="H58">
-        <f>$D58*($C$59+$C$60*EXP($C$61*$D58))</f>
+        <f t="shared" si="6"/>
         <v>163.73144607205813</v>
       </c>
       <c r="I58" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D58,TEXT(E58,"0.000")&amp;")")</f>
+        <f t="shared" si="7"/>
         <v>(10,10.000)</v>
       </c>
       <c r="J58" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D58,TEXT($F58,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(10,90.139)</v>
       </c>
       <c r="K58" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D58,TEXT($G58,"0.000")&amp;")")</f>
+        <f t="shared" si="9"/>
         <v>(10,137.774)</v>
       </c>
       <c r="L58" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$D58,TEXT($H58,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(10,163.731)</v>
       </c>
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59">
         <v>0.78757900000000003</v>
@@ -20869,7 +20885,7 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C60">
         <v>0.51111799999999996</v>
@@ -20879,12 +20895,12 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61">
         <v>0.34175</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="46"/>
       <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -20916,8 +20932,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AB364"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -20937,23 +20953,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="28.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46" t="s">
-        <v>155</v>
+      <c r="B2" s="45" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -20961,20 +20977,20 @@
       <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="C7" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
@@ -20982,7 +20998,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O8" s="17"/>
     </row>
@@ -20997,7 +21013,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O9" s="17"/>
     </row>
@@ -21012,7 +21028,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O10" s="17"/>
     </row>
@@ -21030,7 +21046,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O11" s="17"/>
     </row>
@@ -21065,7 +21081,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O13" s="17"/>
     </row>
@@ -21074,7 +21090,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -21083,10 +21099,10 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
@@ -21108,7 +21124,7 @@
         <v>0.1</v>
       </c>
       <c r="D16" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B16,TEXT($C16,"0.000")&amp;")")</f>
+        <f t="shared" ref="D16:D27" si="0">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B16,TEXT($C16,"0.000")&amp;")")</f>
         <v>(0,0.100)</v>
       </c>
       <c r="K16" t="s">
@@ -21135,7 +21151,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="D17" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B17,TEXT($C17,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(0.2,0.096)</v>
       </c>
       <c r="K17" t="s">
@@ -21163,7 +21179,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D18" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B18,TEXT($C18,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(0.4,0.084)</v>
       </c>
       <c r="K18" t="s">
@@ -21190,7 +21206,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="D19" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B19,TEXT($C19,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(0.6,0.064)</v>
       </c>
       <c r="O19" s="17"/>
@@ -21205,7 +21221,7 @@
         <v>3.599999999999999E-2</v>
       </c>
       <c r="D20" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B20,TEXT($C20,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(0.8,0.036)</v>
       </c>
       <c r="K20" t="s">
@@ -21222,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B21,TEXT($C21,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(1,0.000)</v>
       </c>
       <c r="L21" t="s">
@@ -21246,7 +21262,7 @@
         <v>-3.599999999999999E-2</v>
       </c>
       <c r="D22" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B22,TEXT($C22,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(1.3,-0.036)</v>
       </c>
       <c r="K22" t="s">
@@ -21275,7 +21291,7 @@
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="D23" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B23,TEXT($C23,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(1.6,-0.085)</v>
       </c>
       <c r="K23" t="s">
@@ -21296,7 +21312,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="D24" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B24,TEXT($C24,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(1.9,-0.140)</v>
       </c>
       <c r="O24" s="17"/>
@@ -21310,7 +21326,7 @@
         <v>-0.19</v>
       </c>
       <c r="D25" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B25,TEXT($C25,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(2.2,-0.190)</v>
       </c>
       <c r="O25" s="17"/>
@@ -21324,7 +21340,7 @@
         <v>-0.2</v>
       </c>
       <c r="D26" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B26,TEXT($C26,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(2.5,-0.200)</v>
       </c>
       <c r="K26">
@@ -21341,7 +21357,7 @@
         <v>-0.2</v>
       </c>
       <c r="D27" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B27,TEXT($C27,"0.000")&amp;")")</f>
+        <f t="shared" si="0"/>
         <v>(6,-0.200)</v>
       </c>
       <c r="O27" s="17"/>
@@ -21365,20 +21381,9 @@
       <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -21401,20 +21406,20 @@
       <c r="B32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
+      <c r="C32" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
@@ -21422,7 +21427,7 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O33" s="17"/>
     </row>
@@ -21437,7 +21442,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O34" s="17"/>
     </row>
@@ -21452,7 +21457,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O35" s="17"/>
     </row>
@@ -21470,7 +21475,7 @@
         <v>43</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O36" s="17"/>
     </row>
@@ -21488,13 +21493,13 @@
         <v>43</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B38" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -21506,7 +21511,7 @@
         <v>43</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O38" s="17"/>
     </row>
@@ -21515,7 +21520,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
         <v>38</v>
@@ -21524,10 +21529,10 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B40" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L40" t="s">
         <v>37</v>
@@ -21549,7 +21554,7 @@
         <v>-0.05</v>
       </c>
       <c r="D41" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B41,TEXT($C41,"0.000")&amp;")")</f>
+        <f t="shared" ref="D41:D51" si="1">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B41,TEXT($C41,"0.000")&amp;")")</f>
         <v>(0,-0.050)</v>
       </c>
       <c r="K41" t="s">
@@ -21576,7 +21581,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D42" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B42,TEXT($C42,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(0.2,-0.048)</v>
       </c>
       <c r="K42" t="s">
@@ -21603,7 +21608,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="D43" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B43,TEXT($C43,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(0.4,-0.042)</v>
       </c>
       <c r="O43" s="17"/>
@@ -21618,7 +21623,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D44" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B44,TEXT($C44,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(0.6,-0.032)</v>
       </c>
       <c r="O44" s="17"/>
@@ -21633,7 +21638,7 @@
         <v>-1.7999999999999995E-2</v>
       </c>
       <c r="D45" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B45,TEXT($C45,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(0.8,-0.018)</v>
       </c>
       <c r="K45" t="s">
@@ -21651,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B46,TEXT($C46,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1,0.000)</v>
       </c>
       <c r="L46" t="s">
@@ -21674,7 +21679,7 @@
         <v>1.7999999999999995E-2</v>
       </c>
       <c r="D47" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B47,TEXT($C47,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1.1,0.018)</v>
       </c>
       <c r="K47" t="s">
@@ -21703,7 +21708,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="D48" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B48,TEXT($C48,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1.2,0.032)</v>
       </c>
       <c r="K48" t="s">
@@ -21724,7 +21729,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D49" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B49,TEXT($C49,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1.3,0.042)</v>
       </c>
       <c r="O49" s="17"/>
@@ -21738,7 +21743,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D50" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B50,TEXT($C50,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1.4,0.048)</v>
       </c>
       <c r="O50" s="17"/>
@@ -21753,7 +21758,7 @@
         <v>0.05</v>
       </c>
       <c r="D51" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B51,TEXT($C51,"0.000")&amp;")")</f>
+        <f t="shared" si="1"/>
         <v>(1.6,0.050)</v>
       </c>
       <c r="O51" s="17"/>
@@ -21777,10 +21782,10 @@
       <c r="B54" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="O54" s="45"/>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="O54" s="44"/>
     </row>
     <row r="55" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="15"/>
@@ -21802,20 +21807,20 @@
       <c r="B56" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
+      <c r="C56" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.4">
@@ -21823,7 +21828,7 @@
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O57" s="17"/>
     </row>
@@ -21835,10 +21840,10 @@
         <v>2.4</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O58" s="17"/>
     </row>
@@ -21853,13 +21858,13 @@
         <v>98</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O59" s="17"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="24">
         <f>1/C58</f>
@@ -21869,7 +21874,7 @@
         <v>-0.1</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O60" s="17"/>
     </row>
@@ -21884,13 +21889,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B62" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C62" s="24">
         <f>4/C58</f>
@@ -21900,7 +21905,7 @@
         <v>0.2</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O62" s="17"/>
     </row>
@@ -21909,7 +21914,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s">
         <v>38</v>
@@ -21918,10 +21923,10 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B64" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O64" s="17"/>
     </row>
@@ -21934,7 +21939,7 @@
         <v>-0.1</v>
       </c>
       <c r="D65" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B65,TEXT($C65,"0.000")&amp;")")</f>
+        <f t="shared" ref="D65:D77" si="2">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B65,TEXT($C65,"0.000")&amp;")")</f>
         <v>(0,-0.100)</v>
       </c>
       <c r="O65" s="17"/>
@@ -21948,7 +21953,7 @@
         <v>-0.1</v>
       </c>
       <c r="D66" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B66,TEXT($C66,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(0.42,-0.100)</v>
       </c>
       <c r="L66" s="24"/>
@@ -21964,7 +21969,7 @@
         <v>-0.09</v>
       </c>
       <c r="D67" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B67,TEXT($C67,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(0.536,-0.090)</v>
       </c>
       <c r="L67" s="24"/>
@@ -21980,7 +21985,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="D68" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B68,TEXT($C68,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(0.652,-0.075)</v>
       </c>
       <c r="O68" s="17"/>
@@ -21994,7 +21999,7 @@
         <v>-5.5E-2</v>
       </c>
       <c r="D69" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B69,TEXT($C69,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(0.768,-0.055)</v>
       </c>
       <c r="O69" s="17"/>
@@ -22008,7 +22013,7 @@
         <v>-0.03</v>
       </c>
       <c r="D70" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B70,TEXT($C70,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(0.884,-0.030)</v>
       </c>
       <c r="O70" s="17"/>
@@ -22021,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B71,TEXT($C71,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1,0.000)</v>
       </c>
       <c r="O71" s="17"/>
@@ -22035,7 +22040,7 @@
         <v>0.03</v>
       </c>
       <c r="D72" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B72,TEXT($C72,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1.134,0.030)</v>
       </c>
       <c r="O72" s="17"/>
@@ -22049,7 +22054,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D73" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B73,TEXT($C73,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1.268,0.065)</v>
       </c>
       <c r="L73" s="25"/>
@@ -22064,7 +22069,7 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B74,TEXT($C74,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1.402,0.100)</v>
       </c>
       <c r="O74" s="17"/>
@@ -22078,7 +22083,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="D75" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B75,TEXT($C75,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1.536,0.145)</v>
       </c>
       <c r="O75" s="17"/>
@@ -22091,7 +22096,7 @@
         <v>0.2</v>
       </c>
       <c r="D76" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B76,TEXT($C76,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(1.67,0.200)</v>
       </c>
       <c r="O76" s="17"/>
@@ -22105,7 +22110,7 @@
         <v>0.2</v>
       </c>
       <c r="D77" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B77,TEXT($C77,"0.000")&amp;")")</f>
+        <f t="shared" si="2"/>
         <v>(4,0.200)</v>
       </c>
       <c r="O77" s="17"/>
@@ -22129,21 +22134,10 @@
       <c r="B80" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="45"/>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="O80" s="44"/>
     </row>
     <row r="81" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B81" s="15"/>
@@ -22165,20 +22159,20 @@
       <c r="B82" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
+      <c r="C82" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
       <c r="O82" s="7"/>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.4">
@@ -22201,7 +22195,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O84" s="17"/>
     </row>
@@ -22216,7 +22210,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O85" s="17"/>
     </row>
@@ -22232,7 +22226,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O86" s="17"/>
     </row>
@@ -22253,7 +22247,7 @@
       <c r="B88" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="44">
+      <c r="C88" s="43">
         <f>1.1/C85</f>
         <v>0.78571428571428581</v>
       </c>
@@ -22261,7 +22255,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O88" s="17"/>
     </row>
@@ -22270,7 +22264,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K89" t="s">
         <v>38</v>
@@ -22279,10 +22273,10 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B90" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L90" t="s">
         <v>37</v>
@@ -22312,7 +22306,7 @@
         <v>1.5</v>
       </c>
       <c r="D91" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B91,TEXT($C91,"0.000")&amp;")")</f>
+        <f t="shared" ref="D91:D102" si="3">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B91,TEXT($C91,"0.000")&amp;")")</f>
         <v>(0,1.500)</v>
       </c>
       <c r="K91" t="s">
@@ -22340,7 +22334,7 @@
         <v>1.48</v>
       </c>
       <c r="D92" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B92,TEXT($C92,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(0.2,1.480)</v>
       </c>
       <c r="K92" t="s">
@@ -22368,7 +22362,7 @@
         <v>1.42</v>
       </c>
       <c r="D93" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B93,TEXT($C93,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(0.4,1.420)</v>
       </c>
       <c r="O93" s="17"/>
@@ -22383,7 +22377,7 @@
         <v>1.3199999999999998</v>
       </c>
       <c r="D94" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B94,TEXT($C94,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(0.6,1.320)</v>
       </c>
       <c r="O94" s="17"/>
@@ -22398,7 +22392,7 @@
         <v>1.18</v>
       </c>
       <c r="D95" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B95,TEXT($C95,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(0.8,1.180)</v>
       </c>
       <c r="K95" t="s">
@@ -22415,7 +22409,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B96,TEXT($C96,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L96" t="s">
@@ -22439,7 +22433,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="D97" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B97,TEXT($C97,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(1.3,0.928)</v>
       </c>
       <c r="K97" t="s">
@@ -22470,7 +22464,7 @@
         <v>0.87200000000000011</v>
       </c>
       <c r="D98" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B98,TEXT($C98,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(1.6,0.872)</v>
       </c>
       <c r="K98" t="s">
@@ -22492,7 +22486,7 @@
         <v>0.83200000000000007</v>
       </c>
       <c r="D99" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B99,TEXT($C99,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(1.9,0.832)</v>
       </c>
       <c r="O99" s="17"/>
@@ -22507,7 +22501,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="D100" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B100,TEXT($C100,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(2.2,0.808)</v>
       </c>
       <c r="O100" s="17"/>
@@ -22522,7 +22516,7 @@
         <v>0.8</v>
       </c>
       <c r="D101" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B101,TEXT($C101,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(2.5,0.800)</v>
       </c>
       <c r="O101" s="17"/>
@@ -22536,7 +22530,7 @@
         <v>0.8</v>
       </c>
       <c r="D102" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B102,TEXT($C102,"0.000")&amp;")")</f>
+        <f t="shared" si="3"/>
         <v>(6,0.800)</v>
       </c>
       <c r="O102" s="17"/>
@@ -22596,20 +22590,20 @@
       <c r="B107" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
+      <c r="C107" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
       <c r="O107" s="7"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.4">
@@ -22632,7 +22626,7 @@
         <v>43</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O109" s="17"/>
     </row>
@@ -22647,7 +22641,7 @@
         <v>43</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O110" s="17"/>
     </row>
@@ -22662,7 +22656,7 @@
         <v>43</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O111" s="17"/>
     </row>
@@ -22691,7 +22685,7 @@
         <v>43</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O113" s="17"/>
     </row>
@@ -22700,7 +22694,7 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K114" t="s">
         <v>38</v>
@@ -22709,10 +22703,10 @@
     </row>
     <row r="115" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B115" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L115" t="s">
         <v>37</v>
@@ -22738,11 +22732,11 @@
         <v>0</v>
       </c>
       <c r="C116" s="23">
-        <f>$L$122*B116^2+$M$122*B116+$N$122</f>
+        <f t="shared" ref="C116:C121" si="4">$L$122*B116^2+$M$122*B116+$N$122</f>
         <v>1.5</v>
       </c>
       <c r="D116" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B116,TEXT($C116,"0.000")&amp;")")</f>
+        <f t="shared" ref="D116:D127" si="5">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B116,TEXT($C116,"0.000")&amp;")")</f>
         <v>(0,1.500)</v>
       </c>
       <c r="K116" t="s">
@@ -22767,11 +22761,11 @@
         <v>0.2</v>
       </c>
       <c r="C117" s="23">
-        <f>$L$122*B117^2+$M$122*B117+$N$122</f>
+        <f t="shared" si="4"/>
         <v>1.48</v>
       </c>
       <c r="D117" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B117,TEXT($C117,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(0.2,1.480)</v>
       </c>
       <c r="K117" t="s">
@@ -22795,11 +22789,11 @@
         <v>0.4</v>
       </c>
       <c r="C118" s="23">
-        <f>$L$122*B118^2+$M$122*B118+$N$122</f>
+        <f t="shared" si="4"/>
         <v>1.42</v>
       </c>
       <c r="D118" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B118,TEXT($C118,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(0.4,1.420)</v>
       </c>
       <c r="O118" s="17"/>
@@ -22810,11 +22804,11 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="C119" s="23">
-        <f>$L$122*B119^2+$M$122*B119+$N$122</f>
+        <f t="shared" si="4"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="D119" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B119,TEXT($C119,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(0.6,1.320)</v>
       </c>
       <c r="O119" s="17"/>
@@ -22825,11 +22819,11 @@
         <v>0.8</v>
       </c>
       <c r="C120" s="23">
-        <f>$L$122*B120^2+$M$122*B120+$N$122</f>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="D120" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B120,TEXT($C120,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(0.8,1.180)</v>
       </c>
       <c r="K120" t="s">
@@ -22842,11 +22836,11 @@
         <v>1</v>
       </c>
       <c r="C121" s="23">
-        <f>$L$122*B121^2+$M$122*B121+$N$122</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D121" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B121,TEXT($C121,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L121" t="s">
@@ -22870,7 +22864,7 @@
         <v>0.94217177125722862</v>
       </c>
       <c r="D122" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B122,TEXT($C122,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.133,0.942)</v>
       </c>
       <c r="K122" t="s">
@@ -22901,7 +22895,7 @@
         <v>0.89719426001285085</v>
       </c>
       <c r="D123" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B123,TEXT($C123,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.266,0.897)</v>
       </c>
       <c r="K123" t="s">
@@ -22923,7 +22917,7 @@
         <v>0.8650674662668667</v>
       </c>
       <c r="D124" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B124,TEXT($C124,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.399,0.865)</v>
       </c>
       <c r="O124" s="17"/>
@@ -22938,7 +22932,7 @@
         <v>0.84579139001927617</v>
       </c>
       <c r="D125" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B125,TEXT($C125,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.532,0.846)</v>
       </c>
       <c r="K125" t="s">
@@ -22960,7 +22954,7 @@
         <v>0.83936603127007936</v>
       </c>
       <c r="D126" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B126,TEXT($C126,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.665,0.839)</v>
       </c>
       <c r="O126" s="17"/>
@@ -22975,7 +22969,7 @@
         <v>0.83936603127007936</v>
       </c>
       <c r="D127" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B127,TEXT($C127,"0.000")&amp;")")</f>
+        <f t="shared" si="5"/>
         <v>(1.667,0.839)</v>
       </c>
       <c r="O127" s="17"/>
@@ -23035,20 +23029,20 @@
       <c r="B132" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="43"/>
+      <c r="C132" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" s="58"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="58"/>
+      <c r="J132" s="58"/>
+      <c r="K132" s="58"/>
+      <c r="L132" s="58"/>
+      <c r="M132" s="58"/>
+      <c r="N132" s="58"/>
       <c r="O132" s="7"/>
     </row>
     <row r="133" spans="2:28" x14ac:dyDescent="0.4">
@@ -23064,17 +23058,17 @@
       <c r="B134" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="56">
+      <c r="C134">
         <v>2.99</v>
       </c>
-      <c r="D134" s="56">
+      <c r="D134">
         <v>1.5</v>
       </c>
       <c r="E134" t="s">
         <v>43</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O134" s="17"/>
     </row>
@@ -23089,7 +23083,7 @@
         <v>43</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O135" s="17"/>
     </row>
@@ -23107,7 +23101,7 @@
         <v>43</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="O136" s="17"/>
     </row>
@@ -23141,7 +23135,7 @@
         <v>43</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="O138" s="17"/>
     </row>
@@ -23162,7 +23156,7 @@
         <v>103</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L140" t="s">
         <v>37</v>
@@ -23192,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B141,TEXT($C141,"0.000")&amp;")")</f>
+        <f t="shared" ref="D141:D152" si="6">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B141,TEXT($C141,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="K141" t="s">
@@ -23219,7 +23213,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="D142" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B142,TEXT($C142,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(0.2,0.040)</v>
       </c>
       <c r="K142" t="s">
@@ -23229,7 +23223,6 @@
         <v>1</v>
       </c>
       <c r="M142">
-        <f>D137</f>
         <v>1</v>
       </c>
       <c r="N142">
@@ -23239,7 +23232,7 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B143" s="18">
-        <f>B142+0.2</f>
+        <f t="shared" ref="B143:B151" si="7">B142+0.2</f>
         <v>0.4</v>
       </c>
       <c r="C143" s="23">
@@ -23247,14 +23240,14 @@
         <v>0.16000000000000003</v>
       </c>
       <c r="D143" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B143,TEXT($C143,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(0.4,0.160)</v>
       </c>
       <c r="O143" s="17"/>
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B144" s="18">
-        <f>B143+0.2</f>
+        <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C144" s="23">
@@ -23262,14 +23255,14 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="D144" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B144,TEXT($C144,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(0.6,0.360)</v>
       </c>
       <c r="O144" s="17"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B145" s="18">
-        <f>B144+0.2</f>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="C145" s="23">
@@ -23277,7 +23270,7 @@
         <v>0.64000000000000012</v>
       </c>
       <c r="D145" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B145,TEXT($C145,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(0.8,0.640)</v>
       </c>
       <c r="K145" t="s">
@@ -23287,7 +23280,7 @@
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B146" s="18">
-        <f>B145+0.2</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C146" s="23">
@@ -23295,7 +23288,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B146,TEXT($C146,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L146" t="s">
@@ -23311,7 +23304,7 @@
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B147" s="18">
-        <f>B146+0.2</f>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C147" s="23">
@@ -23319,7 +23312,7 @@
         <v>1.3599999999999999</v>
       </c>
       <c r="D147" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B147,TEXT($C147,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(1.2,1.360)</v>
       </c>
       <c r="K147" t="s">
@@ -23342,7 +23335,7 @@
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B148" s="18">
-        <f>B147+0.2</f>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="C148" s="23">
@@ -23350,7 +23343,7 @@
         <v>1.64</v>
       </c>
       <c r="D148" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B148,TEXT($C148,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(1.4,1.640)</v>
       </c>
       <c r="K148" t="s">
@@ -23364,7 +23357,7 @@
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B149" s="18">
-        <f>B148+0.2</f>
+        <f t="shared" si="7"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C149" s="23">
@@ -23372,14 +23365,14 @@
         <v>1.8399999999999999</v>
       </c>
       <c r="D149" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B149,TEXT($C149,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(1.6,1.840)</v>
       </c>
       <c r="O149" s="17"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B150" s="18">
-        <f>B149+0.2</f>
+        <f t="shared" si="7"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C150" s="23">
@@ -23387,14 +23380,14 @@
         <v>1.96</v>
       </c>
       <c r="D150" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B150,TEXT($C150,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(1.8,1.960)</v>
       </c>
       <c r="O150" s="17"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B151" s="18">
-        <f>B150+0.2</f>
+        <f t="shared" si="7"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C151" s="23">
@@ -23402,7 +23395,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B151,TEXT($C151,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(2,2.000)</v>
       </c>
       <c r="O151" s="17"/>
@@ -23416,7 +23409,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B152,TEXT($C152,"0.000")&amp;")")</f>
+        <f t="shared" si="6"/>
         <v>(6,2.000)</v>
       </c>
       <c r="O152" s="17"/>
@@ -23441,7 +23434,7 @@
         <v>10</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
@@ -23476,20 +23469,20 @@
       <c r="B157" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C157" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D157" s="43"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43"/>
-      <c r="I157" s="43"/>
-      <c r="J157" s="43"/>
-      <c r="K157" s="43"/>
-      <c r="L157" s="43"/>
-      <c r="M157" s="43"/>
-      <c r="N157" s="43"/>
+      <c r="C157" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58"/>
+      <c r="K157" s="58"/>
+      <c r="L157" s="58"/>
+      <c r="M157" s="58"/>
+      <c r="N157" s="58"/>
       <c r="O157" s="7"/>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.4">
@@ -23509,10 +23502,10 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O159" s="17"/>
     </row>
@@ -23527,7 +23520,7 @@
         <v>43</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O160" s="17"/>
     </row>
@@ -23545,7 +23538,7 @@
         <v>43</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="O161" s="17"/>
     </row>
@@ -23579,7 +23572,7 @@
         <v>43</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="O163" s="17"/>
     </row>
@@ -23630,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B166,TEXT($C166,"0.000")&amp;")")</f>
+        <f t="shared" ref="D166:D176" si="8">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B166,TEXT($C166,"0.000")&amp;")")</f>
         <v>(0,0.000)</v>
       </c>
       <c r="K166" t="s">
@@ -23657,7 +23650,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="D167" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B167,TEXT($C167,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(0.2,0.040)</v>
       </c>
       <c r="K167" t="s">
@@ -23667,7 +23660,6 @@
         <v>1</v>
       </c>
       <c r="M167">
-        <f>D162</f>
         <v>1</v>
       </c>
       <c r="N167">
@@ -23677,7 +23669,7 @@
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B168" s="18">
-        <f>B167+0.2</f>
+        <f t="shared" ref="B168:B176" si="9">B167+0.2</f>
         <v>0.4</v>
       </c>
       <c r="C168" s="23">
@@ -23685,14 +23677,14 @@
         <v>0.16000000000000003</v>
       </c>
       <c r="D168" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B168,TEXT($C168,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(0.4,0.160)</v>
       </c>
       <c r="O168" s="17"/>
     </row>
     <row r="169" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B169" s="18">
-        <f>B168+0.2</f>
+        <f t="shared" si="9"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C169" s="23">
@@ -23700,14 +23692,14 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="D169" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B169,TEXT($C169,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(0.6,0.360)</v>
       </c>
       <c r="O169" s="17"/>
     </row>
     <row r="170" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B170" s="18">
-        <f>B169+0.2</f>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="C170" s="23">
@@ -23715,7 +23707,7 @@
         <v>0.64000000000000012</v>
       </c>
       <c r="D170" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B170,TEXT($C170,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(0.8,0.640)</v>
       </c>
       <c r="K170" t="s">
@@ -23725,7 +23717,7 @@
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B171" s="18">
-        <f>B170+0.2</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C171" s="23">
@@ -23733,7 +23725,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B171,TEXT($C171,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L171" t="s">
@@ -23749,7 +23741,7 @@
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B172" s="18">
-        <f>B171+0.2</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="C172" s="23">
@@ -23757,7 +23749,7 @@
         <v>1.3599999999999999</v>
       </c>
       <c r="D172" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B172,TEXT($C172,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1.2,1.360)</v>
       </c>
       <c r="K172" t="s">
@@ -23780,7 +23772,7 @@
     </row>
     <row r="173" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B173" s="18">
-        <f>B172+0.2</f>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="C173" s="23">
@@ -23788,7 +23780,7 @@
         <v>1.64</v>
       </c>
       <c r="D173" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B173,TEXT($C173,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1.4,1.640)</v>
       </c>
       <c r="K173" t="s">
@@ -23802,7 +23794,7 @@
     </row>
     <row r="174" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B174" s="18">
-        <f>B173+0.2</f>
+        <f t="shared" si="9"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C174" s="23">
@@ -23810,14 +23802,14 @@
         <v>1.8399999999999999</v>
       </c>
       <c r="D174" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B174,TEXT($C174,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1.6,1.840)</v>
       </c>
       <c r="O174" s="17"/>
     </row>
     <row r="175" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B175" s="18">
-        <f>B174+0.2</f>
+        <f t="shared" si="9"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C175" s="23">
@@ -23825,14 +23817,14 @@
         <v>1.96</v>
       </c>
       <c r="D175" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B175,TEXT($C175,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(1.8,1.960)</v>
       </c>
       <c r="O175" s="17"/>
     </row>
     <row r="176" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B176" s="18">
-        <f>B175+0.2</f>
+        <f t="shared" si="9"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C176" s="23">
@@ -23840,7 +23832,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B176,TEXT($C176,"0.000")&amp;")")</f>
+        <f t="shared" si="8"/>
         <v>(2,2.000)</v>
       </c>
       <c r="O176" s="17"/>
@@ -23865,7 +23857,7 @@
         <v>10</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
@@ -23900,20 +23892,20 @@
       <c r="B181" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D181" s="43"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43"/>
-      <c r="H181" s="43"/>
-      <c r="I181" s="43"/>
-      <c r="J181" s="43"/>
-      <c r="K181" s="43"/>
-      <c r="L181" s="43"/>
-      <c r="M181" s="43"/>
-      <c r="N181" s="43"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="58"/>
+      <c r="L181" s="58"/>
+      <c r="M181" s="58"/>
+      <c r="N181" s="58"/>
       <c r="O181" s="7"/>
     </row>
     <row r="182" spans="2:28" x14ac:dyDescent="0.4">
@@ -24053,7 +24045,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B190,TEXT($C190,"0.000")&amp;")")</f>
+        <f t="shared" ref="D190:D200" si="10">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B190,TEXT($C190,"0.000")&amp;")")</f>
         <v>(0,4.000)</v>
       </c>
       <c r="K190" t="s">
@@ -24080,7 +24072,7 @@
         <v>3.88</v>
       </c>
       <c r="D191" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B191,TEXT($C191,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(0.2,3.880)</v>
       </c>
       <c r="K191" t="s">
@@ -24099,7 +24091,7 @@
     </row>
     <row r="192" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B192" s="18">
-        <f>B191+0.2</f>
+        <f t="shared" ref="B192:B200" si="11">B191+0.2</f>
         <v>0.4</v>
       </c>
       <c r="C192" s="23">
@@ -24107,14 +24099,14 @@
         <v>3.52</v>
       </c>
       <c r="D192" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B192,TEXT($C192,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(0.4,3.520)</v>
       </c>
       <c r="O192" s="17"/>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B193" s="18">
-        <f>B192+0.2</f>
+        <f t="shared" si="11"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C193" s="23">
@@ -24122,14 +24114,14 @@
         <v>2.92</v>
       </c>
       <c r="D193" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B193,TEXT($C193,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(0.6,2.920)</v>
       </c>
       <c r="O193" s="17"/>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B194" s="18">
-        <f>B193+0.2</f>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="C194" s="23">
@@ -24137,7 +24129,7 @@
         <v>2.0799999999999996</v>
       </c>
       <c r="D194" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B194,TEXT($C194,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(0.8,2.080)</v>
       </c>
       <c r="K194" t="s">
@@ -24147,7 +24139,7 @@
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B195" s="18">
-        <f>B194+0.2</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C195" s="23">
@@ -24155,7 +24147,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B195,TEXT($C195,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L195" t="s">
@@ -24171,7 +24163,7 @@
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B196" s="18">
-        <f>B195+0.2</f>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="C196" s="23">
@@ -24179,7 +24171,7 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="D196" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B196,TEXT($C196,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1.2,0.820)</v>
       </c>
       <c r="K196" t="s">
@@ -24202,7 +24194,7 @@
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B197" s="18">
-        <f>B196+0.2</f>
+        <f t="shared" si="11"/>
         <v>1.4</v>
       </c>
       <c r="C197" s="23">
@@ -24210,7 +24202,7 @@
         <v>0.68</v>
       </c>
       <c r="D197" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B197,TEXT($C197,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1.4,0.680)</v>
       </c>
       <c r="K197" t="s">
@@ -24224,7 +24216,7 @@
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B198" s="18">
-        <f>B197+0.2</f>
+        <f t="shared" si="11"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C198" s="23">
@@ -24232,14 +24224,14 @@
         <v>0.58000000000000007</v>
       </c>
       <c r="D198" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B198,TEXT($C198,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1.6,0.580)</v>
       </c>
       <c r="O198" s="17"/>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B199" s="18">
-        <f>B198+0.2</f>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C199" s="23">
@@ -24247,7 +24239,7 @@
         <v>0.52000000000000013</v>
       </c>
       <c r="D199" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B199,TEXT($C199,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(1.8,0.520)</v>
       </c>
       <c r="K199" t="s">
@@ -24260,7 +24252,7 @@
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B200" s="18">
-        <f>B199+0.2</f>
+        <f t="shared" si="11"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C200" s="23">
@@ -24268,7 +24260,7 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="D200" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B200,TEXT($C200,"0.000")&amp;")")</f>
+        <f t="shared" si="10"/>
         <v>(2,0.500)</v>
       </c>
       <c r="O200" s="17"/>
@@ -24328,20 +24320,20 @@
       <c r="B205" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="43" t="s">
+      <c r="C205" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
-      <c r="I205" s="43"/>
-      <c r="J205" s="43"/>
-      <c r="K205" s="43"/>
-      <c r="L205" s="43"/>
-      <c r="M205" s="43"/>
-      <c r="N205" s="43"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="58"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="58"/>
+      <c r="J205" s="58"/>
+      <c r="K205" s="58"/>
+      <c r="L205" s="58"/>
+      <c r="M205" s="58"/>
+      <c r="N205" s="58"/>
       <c r="O205" s="7"/>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.4">
@@ -24475,7 +24467,7 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="D214" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B214,TEXT($C214,"0.000")&amp;")")</f>
+        <f t="shared" ref="D214:D225" si="12">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B214,TEXT($C214,"0.000")&amp;")")</f>
         <v>(0,0.667)</v>
       </c>
       <c r="K214" t="s">
@@ -24502,7 +24494,7 @@
         <v>0.68</v>
       </c>
       <c r="D215" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B215,TEXT($C215,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(0.2,0.680)</v>
       </c>
       <c r="K215" t="s">
@@ -24529,7 +24521,7 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="D216" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B216,TEXT($C216,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(0.4,0.720)</v>
       </c>
       <c r="O216" s="17"/>
@@ -24544,7 +24536,7 @@
         <v>0.78666666666666674</v>
       </c>
       <c r="D217" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B217,TEXT($C217,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(0.6,0.787)</v>
       </c>
       <c r="O217" s="17"/>
@@ -24559,7 +24551,7 @@
         <v>0.88000000000000012</v>
       </c>
       <c r="D218" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B218,TEXT($C218,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(0.8,0.880)</v>
       </c>
       <c r="K218" t="s">
@@ -24577,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B219,TEXT($C219,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1,1.000)</v>
       </c>
       <c r="L219" t="s">
@@ -24601,7 +24593,7 @@
         <v>1.1199999999999999</v>
       </c>
       <c r="D220" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B220,TEXT($C220,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1.169,1.120)</v>
       </c>
       <c r="K220" t="s">
@@ -24631,7 +24623,7 @@
         <v>1.2133333333333334</v>
       </c>
       <c r="D221" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B221,TEXT($C221,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1.338,1.213)</v>
       </c>
       <c r="K221" t="s">
@@ -24653,7 +24645,7 @@
         <v>1.28</v>
       </c>
       <c r="D222" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B222,TEXT($C222,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1.507,1.280)</v>
       </c>
       <c r="O222" s="17"/>
@@ -24668,7 +24660,7 @@
         <v>1.32</v>
       </c>
       <c r="D223" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B223,TEXT($C223,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1.676,1.320)</v>
       </c>
       <c r="K223" t="s">
@@ -24689,7 +24681,7 @@
         <v>1.3333333333333335</v>
       </c>
       <c r="D224" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B224,TEXT($C224,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(1.845,1.333)</v>
       </c>
       <c r="O224" s="17"/>
@@ -24704,7 +24696,7 @@
         <v>1.3333333333333335</v>
       </c>
       <c r="D225" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B225,TEXT($C225,"0.000")&amp;")")</f>
+        <f t="shared" si="12"/>
         <v>(3.69,1.333)</v>
       </c>
       <c r="O225" s="17"/>
@@ -24729,7 +24721,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D228" s="22"/>
       <c r="E228" s="22"/>
@@ -24881,7 +24873,7 @@
         <v>1.2301203760653721</v>
       </c>
       <c r="D239" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B239,TEXT($C239,"0.000")&amp;")")</f>
+        <f t="shared" ref="D239:D251" si="13">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B239,TEXT($C239,"0.000")&amp;")")</f>
         <v>(0,1.230)</v>
       </c>
       <c r="L239" t="s">
@@ -24904,7 +24896,7 @@
         <v>1.2209155610227571</v>
       </c>
       <c r="D240" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B240,TEXT($C240,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(0.2,1.221)</v>
       </c>
       <c r="K240" t="s">
@@ -24924,7 +24916,7 @@
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B241" s="18">
-        <f>B240+0.2</f>
+        <f t="shared" ref="B241:B249" si="14">B240+0.2</f>
         <v>0.4</v>
       </c>
       <c r="C241" s="23">
@@ -24932,7 +24924,7 @@
         <v>1.1933011158949125</v>
       </c>
       <c r="D241" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B241,TEXT($C241,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(0.4,1.193)</v>
       </c>
       <c r="K241" t="s">
@@ -24951,7 +24943,7 @@
     </row>
     <row r="242" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B242" s="18">
-        <f>B241+0.2</f>
+        <f t="shared" si="14"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C242" s="23">
@@ -24959,7 +24951,7 @@
         <v>1.147277040681838</v>
       </c>
       <c r="D242" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B242,TEXT($C242,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(0.6,1.147)</v>
       </c>
       <c r="K242" t="s">
@@ -24978,7 +24970,7 @@
     </row>
     <row r="243" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B243" s="18">
-        <f>B242+0.2</f>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="C243" s="23">
@@ -24986,14 +24978,14 @@
         <v>1.0828433353835338</v>
       </c>
       <c r="D243" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B243,TEXT($C243,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(0.8,1.083)</v>
       </c>
       <c r="O243" s="17"/>
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B244" s="18">
-        <f>B243+0.2</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C244" s="23">
@@ -25001,21 +24993,21 @@
         <v>1</v>
       </c>
       <c r="D244" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B244,TEXT($C244,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(1,1.000)</v>
       </c>
       <c r="O244" s="17"/>
     </row>
     <row r="245" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B245" s="18">
-        <f>B244+0.2</f>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
       <c r="C245" s="23">
         <v>0.91</v>
       </c>
       <c r="D245" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B245,TEXT($C245,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(1.2,0.910)</v>
       </c>
       <c r="K245" t="s">
@@ -25025,14 +25017,14 @@
     </row>
     <row r="246" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B246" s="18">
-        <f>B245+0.2</f>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
       <c r="C246" s="23">
         <v>0.78</v>
       </c>
       <c r="D246" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B246,TEXT($C246,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(1.4,0.780)</v>
       </c>
       <c r="L246" t="s">
@@ -25048,14 +25040,14 @@
     </row>
     <row r="247" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B247" s="18">
-        <f>B246+0.2</f>
+        <f t="shared" si="14"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C247" s="23">
         <v>0.68</v>
       </c>
       <c r="D247" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B247,TEXT($C247,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(1.6,0.680)</v>
       </c>
       <c r="K247" t="s">
@@ -25077,7 +25069,7 @@
     </row>
     <row r="248" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B248" s="18">
-        <f>B247+0.2</f>
+        <f t="shared" si="14"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C248" s="23">
@@ -25085,7 +25077,7 @@
         <v>0.58000000000000007</v>
       </c>
       <c r="D248" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B248,TEXT($C248,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(1.8,0.580)</v>
       </c>
       <c r="K248" t="s">
@@ -25099,14 +25091,14 @@
     </row>
     <row r="249" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B249" s="18">
-        <f>B248+0.2</f>
+        <f t="shared" si="14"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C249" s="23">
         <v>0.52</v>
       </c>
       <c r="D249" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B249,TEXT($C249,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(2,0.520)</v>
       </c>
       <c r="O249" s="17"/>
@@ -25121,7 +25113,7 @@
         <v>0.43932870573763289</v>
       </c>
       <c r="D250" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B250,TEXT($C250,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(2.219,0.439)</v>
       </c>
       <c r="O250" s="17"/>
@@ -25135,7 +25127,7 @@
         <v>0.43932870573763289</v>
       </c>
       <c r="D251" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B251,TEXT($C251,"0.000")&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>(15,0.439)</v>
       </c>
       <c r="O251" s="17"/>
@@ -25285,7 +25277,7 @@
         <v>1.3</v>
       </c>
       <c r="D265" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B265,TEXT($C265,"0.000")&amp;")")</f>
+        <f t="shared" ref="D265:D277" si="15">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B265,TEXT($C265,"0.000")&amp;")")</f>
         <v>(0,1.300)</v>
       </c>
       <c r="O265" s="17"/>
@@ -25298,7 +25290,7 @@
         <v>1.3</v>
       </c>
       <c r="D266" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B266,TEXT($C266,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(0.5,1.300)</v>
       </c>
       <c r="F266" s="19"/>
@@ -25321,7 +25313,7 @@
         <v>1.29</v>
       </c>
       <c r="D267" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B267,TEXT($C267,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(0.6,1.290)</v>
       </c>
       <c r="F267" s="19"/>
@@ -25348,7 +25340,7 @@
         <v>1.27</v>
       </c>
       <c r="D268" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B268,TEXT($C268,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(0.7,1.270)</v>
       </c>
       <c r="F268" s="19"/>
@@ -25374,7 +25366,7 @@
         <v>1.23</v>
       </c>
       <c r="D269" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B269,TEXT($C269,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(0.8,1.230)</v>
       </c>
       <c r="F269" s="19"/>
@@ -25388,7 +25380,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D270" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B270,TEXT($C270,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(0.9,1.130)</v>
       </c>
       <c r="F270" s="19"/>
@@ -25403,7 +25395,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B271,TEXT($C271,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1,1.000)</v>
       </c>
       <c r="F271" s="19"/>
@@ -25418,7 +25410,7 @@
         <v>0.87</v>
       </c>
       <c r="D272" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B272,TEXT($C272,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1.1,0.870)</v>
       </c>
       <c r="F272" s="19"/>
@@ -25436,7 +25428,7 @@
         <v>0.77</v>
       </c>
       <c r="D273" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B273,TEXT($C273,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1.2,0.770)</v>
       </c>
       <c r="F273" s="19"/>
@@ -25460,7 +25452,7 @@
         <v>0.73</v>
       </c>
       <c r="D274" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B274,TEXT($C274,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1.3,0.730)</v>
       </c>
       <c r="F274" s="19"/>
@@ -25490,7 +25482,7 @@
         <v>0.71</v>
       </c>
       <c r="D275" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B275,TEXT($C275,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1.4,0.710)</v>
       </c>
       <c r="F275" s="19"/>
@@ -25513,7 +25505,7 @@
         <v>0.7</v>
       </c>
       <c r="D276" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B276,TEXT($C276,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(1.5,0.700)</v>
       </c>
       <c r="F276" s="19"/>
@@ -25528,7 +25520,7 @@
         <v>0.7</v>
       </c>
       <c r="D277" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B277,TEXT($C277,"0.000")&amp;")")</f>
+        <f t="shared" si="15"/>
         <v>(4,0.700)</v>
       </c>
       <c r="F277" s="19"/>
@@ -25554,7 +25546,7 @@
         <v>10</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D280" s="22"/>
       <c r="E280" s="22"/>
@@ -25738,6 +25730,13 @@
         <v>0.85</v>
       </c>
       <c r="O291" s="17"/>
+      <c r="P291" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q291" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(", ",TRUE,B293:B304)&amp;"]"</f>
+        <v>[0, 0.2, 0.4, 0.6, 0.8, 1, 1.2, 1.4, 1.6, 1.8, 2, 4]</v>
+      </c>
     </row>
     <row r="292" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B292" s="18" t="s">
@@ -25747,6 +25746,13 @@
         <v>46</v>
       </c>
       <c r="O292" s="17"/>
+      <c r="P292" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q292" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(", ",TRUE,C293:C304)&amp;"]"</f>
+        <v>[0.01, 0.04, 0.16, 0.36, 0.64, 1, 1.20347826086957, 1.36173913043478, 1.47478260869565, 1.54260869565217, 1.56521739130435, 1.56521739130435]</v>
+      </c>
     </row>
     <row r="293" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B293" s="18">
@@ -25757,15 +25763,21 @@
         <v>0.01</v>
       </c>
       <c r="D293" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B293,TEXT($C293,"0.000")&amp;")")</f>
+        <f t="shared" ref="D293:D304" si="16">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B293,TEXT($C293,"0.000")&amp;")")</f>
         <v>(0,0.010)</v>
       </c>
       <c r="M293" s="34"/>
       <c r="O293" s="17"/>
+      <c r="P293" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q293" s="57" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="294" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B294" s="18">
-        <f>B293+0.2</f>
+        <f t="shared" ref="B294:B303" si="17">B293+0.2</f>
         <v>0.2</v>
       </c>
       <c r="C294">
@@ -25773,14 +25785,14 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="D294" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B294,TEXT($C294,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(0.2,0.040)</v>
       </c>
       <c r="O294" s="17"/>
     </row>
     <row r="295" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B295" s="18">
-        <f>B294+0.2</f>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="C295">
@@ -25788,7 +25800,7 @@
         <v>0.16000000000000003</v>
       </c>
       <c r="D295" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B295,TEXT($C295,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(0.4,0.160)</v>
       </c>
       <c r="L295" t="s">
@@ -25804,7 +25816,7 @@
     </row>
     <row r="296" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B296" s="18">
-        <f>B295+0.2</f>
+        <f t="shared" si="17"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C296">
@@ -25812,7 +25824,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="D296" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B296,TEXT($C296,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(0.6,0.360)</v>
       </c>
       <c r="K296" t="s">
@@ -25832,7 +25844,7 @@
     </row>
     <row r="297" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B297" s="18">
-        <f>B296+0.2</f>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="C297">
@@ -25840,7 +25852,7 @@
         <v>0.64000000000000012</v>
       </c>
       <c r="D297" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B297,TEXT($C297,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(0.8,0.640)</v>
       </c>
       <c r="K297" t="s">
@@ -25859,21 +25871,21 @@
     </row>
     <row r="298" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B298" s="18">
-        <f>B297+0.2</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B298,TEXT($C298,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(1,1.000)</v>
       </c>
       <c r="O298" s="17"/>
     </row>
     <row r="299" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B299" s="18">
-        <f>B298+0.2</f>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
       <c r="C299" s="23">
@@ -25881,14 +25893,14 @@
         <v>1.2034782608695651</v>
       </c>
       <c r="D299" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B299,TEXT($C299,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(1.2,1.203)</v>
       </c>
       <c r="O299" s="17"/>
     </row>
     <row r="300" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B300" s="18">
-        <f>B299+0.2</f>
+        <f t="shared" si="17"/>
         <v>1.4</v>
       </c>
       <c r="C300" s="23">
@@ -25896,14 +25908,14 @@
         <v>1.3617391304347826</v>
       </c>
       <c r="D300" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B300,TEXT($C300,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(1.4,1.362)</v>
       </c>
       <c r="O300" s="17"/>
     </row>
     <row r="301" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B301" s="18">
-        <f>B300+0.2</f>
+        <f t="shared" si="17"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C301" s="23">
@@ -25911,7 +25923,7 @@
         <v>1.4747826086956521</v>
       </c>
       <c r="D301" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B301,TEXT($C301,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(1.6,1.475)</v>
       </c>
       <c r="K301" t="s">
@@ -25921,7 +25933,7 @@
     </row>
     <row r="302" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B302" s="18">
-        <f>B301+0.2</f>
+        <f t="shared" si="17"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C302" s="23">
@@ -25929,7 +25941,7 @@
         <v>1.5426086956521738</v>
       </c>
       <c r="D302" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B302,TEXT($C302,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(1.8,1.543)</v>
       </c>
       <c r="I302" t="s">
@@ -25953,7 +25965,7 @@
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B303" s="18">
-        <f>B302+0.2</f>
+        <f t="shared" si="17"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C303" s="24">
@@ -25961,7 +25973,7 @@
         <v>1.5652173913043479</v>
       </c>
       <c r="D303" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B303,TEXT($C303,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(2,1.565)</v>
       </c>
       <c r="K303" t="s">
@@ -25991,7 +26003,7 @@
         <v>1.5652173913043479</v>
       </c>
       <c r="D304" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B304,TEXT($C304,"0.000")&amp;")")</f>
+        <f t="shared" si="16"/>
         <v>(4,1.565)</v>
       </c>
       <c r="K304" t="s">
@@ -26063,6 +26075,13 @@
         <v>0.85</v>
       </c>
       <c r="O308" s="17"/>
+      <c r="P308" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q308" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(", ",TRUE,B310:B322)&amp;"]"</f>
+        <v>[0, 0.2, 0.4, 0.6, 0.8, 1, 1.2, 1.4, 1.6, 1.8, 2, 2.25, 4]</v>
+      </c>
     </row>
     <row r="309" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B309" s="18" t="s">
@@ -26072,7 +26091,13 @@
         <v>46</v>
       </c>
       <c r="O309" s="17"/>
-      <c r="Q309" s="29"/>
+      <c r="P309" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q309" t="str">
+        <f>"["&amp;_xlfn.TEXTJOIN(", ",TRUE,C310:C322)&amp;"]"</f>
+        <v>[0.01, 0.45, 0.65, 0.8, 0.9, 1, 1.15, 1.4, 1.8, 2.65, 2.85, 3, 3]</v>
+      </c>
     </row>
     <row r="310" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B310" s="18">
@@ -26083,53 +26108,58 @@
         <v>0.01</v>
       </c>
       <c r="D310" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B310,TEXT($C310,"0.000")&amp;")")</f>
+        <f t="shared" ref="D310:D322" si="18">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B310,TEXT($C310,"0.000")&amp;")")</f>
         <v>(0,0.010)</v>
       </c>
       <c r="O310" s="17"/>
-      <c r="Q310" s="23"/>
+      <c r="P310" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q310" s="57" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="311" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B311" s="18">
-        <f>B310+0.2</f>
+        <f t="shared" ref="B311:B320" si="19">B310+0.2</f>
         <v>0.2</v>
       </c>
       <c r="C311">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D311" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B311,TEXT($C311,"0.000")&amp;")")</f>
-        <v>(0.2,0.300)</v>
+        <f t="shared" si="18"/>
+        <v>(0.2,0.450)</v>
       </c>
       <c r="O311" s="17"/>
       <c r="Q311" s="23"/>
     </row>
     <row r="312" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B312" s="18">
-        <f>B311+0.2</f>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="C312">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="D312" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B312,TEXT($C312,"0.000")&amp;")")</f>
-        <v>(0.4,0.550)</v>
+        <f t="shared" si="18"/>
+        <v>(0.4,0.650)</v>
       </c>
       <c r="O312" s="17"/>
       <c r="Q312" s="23"/>
     </row>
     <row r="313" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B313" s="18">
-        <f>B312+0.2</f>
+        <f t="shared" si="19"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="C313">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D313" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B313,TEXT($C313,"0.000")&amp;")")</f>
-        <v>(0.6,0.750)</v>
+        <f t="shared" si="18"/>
+        <v>(0.6,0.800)</v>
       </c>
       <c r="J313">
         <f>0.5/C285</f>
@@ -26139,42 +26169,42 @@
     </row>
     <row r="314" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B314" s="18">
-        <f>B313+0.2</f>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="C314">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D314" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B314,TEXT($C314,"0.000")&amp;")")</f>
-        <v>(0.8,0.950)</v>
+        <f t="shared" si="18"/>
+        <v>(0.8,0.900)</v>
       </c>
       <c r="O314" s="17"/>
     </row>
     <row r="315" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B315" s="18">
-        <f>B314+0.2</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B315,TEXT($C315,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(1,1.000)</v>
       </c>
       <c r="O315" s="17"/>
     </row>
     <row r="316" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B316" s="18">
-        <f>B315+0.2</f>
+        <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
       <c r="C316" s="23">
         <v>1.1499999999999999</v>
       </c>
       <c r="D316" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B316,TEXT($C316,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(1.2,1.150)</v>
       </c>
       <c r="K316">
@@ -26184,14 +26214,14 @@
     </row>
     <row r="317" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B317" s="18">
-        <f>B316+0.2</f>
+        <f t="shared" si="19"/>
         <v>1.4</v>
       </c>
       <c r="C317" s="23">
         <v>1.4</v>
       </c>
       <c r="D317" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B317,TEXT($C317,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(1.4,1.400)</v>
       </c>
       <c r="K317">
@@ -26201,14 +26231,14 @@
     </row>
     <row r="318" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B318" s="18">
-        <f>B317+0.2</f>
+        <f t="shared" si="19"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="C318" s="23">
         <v>1.8</v>
       </c>
       <c r="D318" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B318,TEXT($C318,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(1.6,1.800)</v>
       </c>
       <c r="K318">
@@ -26218,15 +26248,15 @@
     </row>
     <row r="319" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B319" s="18">
-        <f>B318+0.2</f>
+        <f t="shared" si="19"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="C319" s="23">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D319" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B319,TEXT($C319,"0.000")&amp;")")</f>
-        <v>(1.8,2.600)</v>
+        <f t="shared" si="18"/>
+        <v>(1.8,2.650)</v>
       </c>
       <c r="K319">
         <v>2.9016129032258062</v>
@@ -26235,14 +26265,14 @@
     </row>
     <row r="320" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B320" s="18">
-        <f>B319+0.2</f>
+        <f t="shared" si="19"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="C320">
         <v>2.85</v>
       </c>
       <c r="D320" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B320,TEXT($C320,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(2,2.850)</v>
       </c>
       <c r="I320" t="s">
@@ -26265,22 +26295,22 @@
         <v>3</v>
       </c>
       <c r="D321" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B321,TEXT($C321,"0.000")&amp;")")</f>
+        <f t="shared" si="18"/>
         <v>(2.25,3.000)</v>
       </c>
       <c r="O321" s="17"/>
     </row>
     <row r="322" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B322" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C322">
         <f>C288/C307</f>
         <v>3</v>
       </c>
       <c r="D322" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B322,TEXT($C322,"0.000")&amp;")")</f>
-        <v>(3,3.000)</v>
+        <f t="shared" si="18"/>
+        <v>(4,3.000)</v>
       </c>
       <c r="K322">
         <v>3</v>
@@ -26293,35 +26323,13 @@
       </c>
       <c r="C323" s="20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,D310:D322)</f>
-        <v>(0,0.010),(0.2,0.300),(0.4,0.550),(0.6,0.750),(0.8,0.950),(1,1.000),(1.2,1.150),(1.4,1.400),(1.6,1.800),(1.8,2.600),(2,2.850),(2.25,3.000),(3,3.000)</v>
-      </c>
-      <c r="D323" s="58"/>
-      <c r="E323" s="58"/>
-      <c r="F323" s="58"/>
-      <c r="G323" s="58"/>
-      <c r="H323" s="58"/>
-      <c r="I323" s="58"/>
-      <c r="J323" s="58"/>
-      <c r="K323" s="58"/>
-      <c r="L323" s="58"/>
-      <c r="M323" s="58"/>
-      <c r="N323" s="58"/>
+        <v>(0,0.010),(0.2,0.450),(0.4,0.650),(0.6,0.800),(0.8,0.900),(1,1.000),(1.2,1.150),(1.4,1.400),(1.6,1.800),(1.8,2.650),(2,2.850),(2.25,3.000),(4,3.000)</v>
+      </c>
       <c r="O323" s="17"/>
     </row>
     <row r="324" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B324" s="18"/>
-      <c r="C324" s="59"/>
-      <c r="D324" s="58"/>
-      <c r="E324" s="58"/>
-      <c r="F324" s="58"/>
-      <c r="G324" s="58"/>
-      <c r="H324" s="58"/>
-      <c r="I324" s="58"/>
-      <c r="J324" s="58"/>
-      <c r="K324" s="58"/>
-      <c r="L324" s="58"/>
-      <c r="M324" s="58"/>
-      <c r="N324" s="58"/>
+      <c r="C324" s="20"/>
       <c r="O324" s="17"/>
     </row>
     <row r="325" spans="2:15" x14ac:dyDescent="0.4">
@@ -26331,33 +26339,11 @@
       <c r="C325" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D325" s="58"/>
-      <c r="E325" s="58"/>
-      <c r="F325" s="58"/>
-      <c r="G325" s="58"/>
-      <c r="H325" s="58"/>
-      <c r="I325" s="58"/>
-      <c r="J325" s="58"/>
-      <c r="K325" s="58"/>
-      <c r="L325" s="58"/>
-      <c r="M325" s="58"/>
-      <c r="N325" s="58"/>
       <c r="O325" s="17"/>
     </row>
     <row r="326" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B326" s="18"/>
       <c r="C326" s="20"/>
-      <c r="D326" s="58"/>
-      <c r="E326" s="58"/>
-      <c r="F326" s="58"/>
-      <c r="G326" s="58"/>
-      <c r="H326" s="58"/>
-      <c r="I326" s="58"/>
-      <c r="J326" s="58"/>
-      <c r="K326" s="58"/>
-      <c r="L326" s="58"/>
-      <c r="M326" s="58"/>
-      <c r="N326" s="58"/>
       <c r="O326" s="17"/>
     </row>
     <row r="327" spans="2:15" x14ac:dyDescent="0.4">
@@ -26491,7 +26477,7 @@
         <v>1.5</v>
       </c>
       <c r="D336" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B336,TEXT($C336,"0.000")&amp;")")</f>
+        <f t="shared" ref="D336:D341" si="20">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B336,TEXT($C336,"0.000")&amp;")")</f>
         <v>(0,1.500)</v>
       </c>
       <c r="O336" s="17"/>
@@ -26504,7 +26490,7 @@
         <v>1.5</v>
       </c>
       <c r="D337" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B337,TEXT($C337,"0.000")&amp;")")</f>
+        <f t="shared" si="20"/>
         <v>(0.5,1.500)</v>
       </c>
       <c r="O337" s="17"/>
@@ -26517,7 +26503,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B338,TEXT($C338,"0.000")&amp;")")</f>
+        <f t="shared" si="20"/>
         <v>(1,1.000)</v>
       </c>
       <c r="O338" s="17"/>
@@ -26530,7 +26516,7 @@
         <v>0.67</v>
       </c>
       <c r="D339" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B339,TEXT($C339,"0.000")&amp;")")</f>
+        <f t="shared" si="20"/>
         <v>(2,0.670)</v>
       </c>
       <c r="O339" s="17"/>
@@ -26544,7 +26530,7 @@
         <v>0.44666666666666671</v>
       </c>
       <c r="D340" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B340,TEXT($C340,"0.000")&amp;")")</f>
+        <f t="shared" si="20"/>
         <v>(4,0.447)</v>
       </c>
       <c r="O340" s="17"/>
@@ -26558,7 +26544,7 @@
         <v>0.29777777777777781</v>
       </c>
       <c r="D341" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B341,TEXT($C341,"0.000")&amp;")")</f>
+        <f t="shared" si="20"/>
         <v>(8,0.298)</v>
       </c>
       <c r="O341" s="17"/>
@@ -26619,7 +26605,7 @@
         <v>3</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
@@ -26654,7 +26640,7 @@
         <v>72</v>
       </c>
       <c r="E348" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O348" s="17"/>
     </row>
@@ -26681,7 +26667,7 @@
         <v>1.5</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O350" s="17"/>
     </row>
@@ -26706,7 +26692,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O352" s="17"/>
     </row>
@@ -26733,7 +26719,7 @@
         <v>1.5</v>
       </c>
       <c r="D355" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B355,TEXT($C355,"0.000")&amp;")")</f>
+        <f t="shared" ref="D355:D360" si="21">"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B355,TEXT($C355,"0.000")&amp;")")</f>
         <v>(0,1.500)</v>
       </c>
       <c r="O355" s="17"/>
@@ -26746,7 +26732,7 @@
         <v>1.5</v>
       </c>
       <c r="D356" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B356,TEXT($C356,"0.000")&amp;")")</f>
+        <f t="shared" si="21"/>
         <v>(0.5,1.500)</v>
       </c>
       <c r="O356" s="17"/>
@@ -26759,7 +26745,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B357,TEXT($C357,"0.000")&amp;")")</f>
+        <f t="shared" si="21"/>
         <v>(1,1.000)</v>
       </c>
       <c r="O357" s="17"/>
@@ -26772,7 +26758,7 @@
         <v>0.67</v>
       </c>
       <c r="D358" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B358,TEXT($C358,"0.000")&amp;")")</f>
+        <f t="shared" si="21"/>
         <v>(2,0.670)</v>
       </c>
       <c r="O358" s="17"/>
@@ -26786,7 +26772,7 @@
         <v>0.44666666666666671</v>
       </c>
       <c r="D359" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B359,TEXT($C359,"0.000")&amp;")")</f>
+        <f t="shared" si="21"/>
         <v>(4,0.447)</v>
       </c>
       <c r="O359" s="17"/>
@@ -26800,7 +26786,7 @@
         <v>0.29777777777777781</v>
       </c>
       <c r="D360" s="19" t="str">
-        <f>"("&amp;_xlfn.TEXTJOIN(",",TRUE,$B360,TEXT($C360,"0.000")&amp;")")</f>
+        <f t="shared" si="21"/>
         <v>(8,0.298)</v>
       </c>
       <c r="O360" s="17"/>
@@ -26894,13 +26880,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46" t="s">
-        <v>183</v>
+      <c r="B2" s="45" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -27153,8 +27139,8 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="21"/>
-      <c r="C18" s="55" t="s">
-        <v>185</v>
+      <c r="C18" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -27163,8 +27149,8 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="55" t="s">
-        <v>186</v>
+      <c r="K18" s="54" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
